--- a/Conversor numérico/Cronograma.xlsx
+++ b/Conversor numérico/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orymizak PC\Desktop\docs - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A165101-2475-418A-BD61-9C1AFDFE9491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A7AE90-30C8-43BB-A099-65339870FBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD5F4A7F-5649-4CD5-9118-31A6547B93A9}"/>
   </bookViews>
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +188,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -238,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -867,6 +875,291 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color theme="1"/>
@@ -874,265 +1167,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1142,7 +1176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1170,86 +1204,116 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1257,6 +1321,144 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1269,111 +1471,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1389,159 +1486,112 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1856,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FE6745-5225-4423-A78A-737596D40ACC}">
-  <dimension ref="C1:BU34"/>
+  <dimension ref="C1:BQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD29" sqref="BD29"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ22" sqref="AZ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,312 +1933,298 @@
     <col min="53" max="53" width="2.42578125" customWidth="1"/>
     <col min="54" max="54" width="2.42578125" style="2" customWidth="1"/>
     <col min="55" max="57" width="2.42578125" customWidth="1"/>
-    <col min="58" max="65" width="2.42578125" style="2" customWidth="1"/>
-    <col min="66" max="69" width="2.42578125" customWidth="1"/>
-    <col min="70" max="71" width="2.42578125" style="2" customWidth="1"/>
-    <col min="72" max="72" width="2.42578125" customWidth="1"/>
+    <col min="58" max="61" width="2.42578125" style="2" customWidth="1"/>
+    <col min="62" max="65" width="2.42578125" customWidth="1"/>
+    <col min="66" max="67" width="2.42578125" style="2" customWidth="1"/>
+    <col min="68" max="68" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:72" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="107" t="s">
+    <row r="1" spans="3:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:68" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
     </row>
-    <row r="3" spans="3:72" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="110" t="s">
+    <row r="3" spans="3:68" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
-    <row r="4" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C4" s="113" t="s">
+    <row r="4" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="C4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="115"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="3:72" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="116" t="s">
+    <row r="5" spans="3:68" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="118"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="3:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="119" t="s">
+    <row r="6" spans="3:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="3:72" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="3:72" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="43" t="s">
+    <row r="7" spans="3:68" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="3:68" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="44"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="44"/>
-      <c r="BE8" s="44"/>
-      <c r="BF8" s="44"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="44"/>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="44"/>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="44"/>
-      <c r="BM8" s="44"/>
-      <c r="BN8" s="44"/>
-      <c r="BO8" s="44"/>
-      <c r="BP8" s="44"/>
-      <c r="BQ8" s="44"/>
-      <c r="BR8" s="44"/>
-      <c r="BS8" s="44"/>
-      <c r="BT8" s="45"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="112"/>
+      <c r="AC8" s="112"/>
+      <c r="AD8" s="112"/>
+      <c r="AE8" s="112"/>
+      <c r="AF8" s="112"/>
+      <c r="AG8" s="112"/>
+      <c r="AH8" s="112"/>
+      <c r="AI8" s="112"/>
+      <c r="AJ8" s="112"/>
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="112"/>
+      <c r="AM8" s="112"/>
+      <c r="AN8" s="112"/>
+      <c r="AO8" s="112"/>
+      <c r="AP8" s="112"/>
+      <c r="AQ8" s="112"/>
+      <c r="AR8" s="112"/>
+      <c r="AS8" s="112"/>
+      <c r="AT8" s="112"/>
+      <c r="AU8" s="112"/>
+      <c r="AV8" s="112"/>
+      <c r="AW8" s="112"/>
+      <c r="AX8" s="112"/>
+      <c r="AY8" s="112"/>
+      <c r="AZ8" s="112"/>
+      <c r="BA8" s="112"/>
+      <c r="BB8" s="112"/>
+      <c r="BC8" s="112"/>
+      <c r="BD8" s="112"/>
+      <c r="BE8" s="112"/>
+      <c r="BF8" s="112"/>
+      <c r="BG8" s="112"/>
+      <c r="BH8" s="112"/>
+      <c r="BI8" s="112"/>
+      <c r="BJ8" s="112"/>
+      <c r="BK8" s="112"/>
+      <c r="BL8" s="112"/>
+      <c r="BM8" s="112"/>
+      <c r="BN8" s="112"/>
+      <c r="BO8" s="112"/>
+      <c r="BP8" s="113"/>
     </row>
-    <row r="9" spans="3:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40">
+    <row r="9" spans="3:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="108">
         <v>1</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="36">
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="104">
         <v>2</v>
       </c>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="36">
+      <c r="V9" s="105"/>
+      <c r="W9" s="105"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="104">
         <v>3</v>
       </c>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="36">
+      <c r="AH9" s="105"/>
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="105"/>
+      <c r="AK9" s="105"/>
+      <c r="AL9" s="105"/>
+      <c r="AM9" s="105"/>
+      <c r="AN9" s="105"/>
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="105"/>
+      <c r="AR9" s="110"/>
+      <c r="AS9" s="104">
         <v>4</v>
       </c>
-      <c r="AT9" s="37"/>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="37"/>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37"/>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="36">
+      <c r="AT9" s="105"/>
+      <c r="AU9" s="105"/>
+      <c r="AV9" s="105"/>
+      <c r="AW9" s="105"/>
+      <c r="AX9" s="105"/>
+      <c r="AY9" s="105"/>
+      <c r="AZ9" s="105"/>
+      <c r="BA9" s="105"/>
+      <c r="BB9" s="105"/>
+      <c r="BC9" s="105"/>
+      <c r="BD9" s="110"/>
+      <c r="BE9" s="153">
         <v>5</v>
       </c>
-      <c r="BF9" s="37"/>
-      <c r="BG9" s="37"/>
-      <c r="BH9" s="37"/>
-      <c r="BI9" s="37"/>
-      <c r="BJ9" s="37"/>
-      <c r="BK9" s="37"/>
-      <c r="BL9" s="37"/>
-      <c r="BM9" s="37"/>
-      <c r="BN9" s="37"/>
-      <c r="BO9" s="37"/>
-      <c r="BP9" s="42"/>
-      <c r="BQ9" s="36">
-        <v>6</v>
-      </c>
-      <c r="BR9" s="37"/>
-      <c r="BS9" s="37"/>
-      <c r="BT9" s="122"/>
+      <c r="BF9" s="154"/>
+      <c r="BG9" s="154"/>
+      <c r="BH9" s="154"/>
+      <c r="BI9" s="154"/>
+      <c r="BJ9" s="154"/>
+      <c r="BK9" s="154"/>
+      <c r="BL9" s="154"/>
+      <c r="BM9" s="154"/>
+      <c r="BN9" s="154"/>
+      <c r="BO9" s="154"/>
+      <c r="BP9" s="155"/>
     </row>
-    <row r="10" spans="3:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="94" t="s">
+    <row r="10" spans="3:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="129"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
-      <c r="AB10" s="129"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="129"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="127"/>
-      <c r="AG10" s="128"/>
-      <c r="AH10" s="129"/>
-      <c r="AI10" s="129"/>
-      <c r="AJ10" s="129"/>
-      <c r="AK10" s="129"/>
-      <c r="AL10" s="129"/>
-      <c r="AM10" s="129"/>
-      <c r="AN10" s="129"/>
-      <c r="AO10" s="129"/>
-      <c r="AP10" s="129"/>
-      <c r="AQ10" s="129"/>
-      <c r="AR10" s="127"/>
-      <c r="AS10" s="128"/>
-      <c r="AT10" s="129"/>
-      <c r="AU10" s="129"/>
-      <c r="AV10" s="129"/>
-      <c r="AW10" s="129"/>
-      <c r="AX10" s="129"/>
-      <c r="AY10" s="129"/>
-      <c r="AZ10" s="129"/>
-      <c r="BA10" s="129"/>
-      <c r="BB10" s="129"/>
-      <c r="BC10" s="129"/>
-      <c r="BD10" s="127"/>
-      <c r="BE10" s="128"/>
-      <c r="BF10" s="129"/>
-      <c r="BG10" s="129"/>
-      <c r="BH10" s="129"/>
-      <c r="BI10" s="129"/>
-      <c r="BJ10" s="129"/>
-      <c r="BK10" s="129"/>
-      <c r="BL10" s="129"/>
-      <c r="BM10" s="129"/>
-      <c r="BN10" s="129"/>
-      <c r="BO10" s="129"/>
-      <c r="BP10" s="127"/>
-      <c r="BQ10" s="128"/>
-      <c r="BR10" s="129"/>
-      <c r="BS10" s="129"/>
-      <c r="BT10" s="130"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="24"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="26"/>
+      <c r="AX10" s="26"/>
+      <c r="AY10" s="26"/>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="26"/>
+      <c r="BB10" s="26"/>
+      <c r="BC10" s="26"/>
+      <c r="BD10" s="24"/>
+      <c r="BE10" s="25"/>
+      <c r="BF10" s="26"/>
+      <c r="BG10" s="26"/>
+      <c r="BH10" s="26"/>
+      <c r="BI10" s="26"/>
+      <c r="BJ10" s="26"/>
+      <c r="BK10" s="26"/>
+      <c r="BL10" s="157"/>
+      <c r="BM10" s="157"/>
+      <c r="BN10" s="26"/>
+      <c r="BO10" s="26"/>
+      <c r="BP10" s="27"/>
     </row>
-    <row r="11" spans="3:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="95"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="89" t="s">
+    <row r="11" spans="3:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="57"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="14"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -2243,26 +2279,22 @@
       <c r="BI11" s="3"/>
       <c r="BJ11" s="3"/>
       <c r="BK11" s="3"/>
-      <c r="BL11" s="3"/>
-      <c r="BM11" s="3"/>
+      <c r="BL11" s="158"/>
+      <c r="BM11" s="158"/>
       <c r="BN11" s="3"/>
       <c r="BO11" s="3"/>
-      <c r="BP11" s="9"/>
-      <c r="BQ11" s="7"/>
-      <c r="BR11" s="3"/>
-      <c r="BS11" s="3"/>
-      <c r="BT11" s="132"/>
+      <c r="BP11" s="29"/>
     </row>
-    <row r="12" spans="3:72" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="95"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="90" t="s">
+    <row r="12" spans="3:68" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="57"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="14"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -2317,324 +2349,304 @@
       <c r="BI12" s="3"/>
       <c r="BJ12" s="3"/>
       <c r="BK12" s="3"/>
-      <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
+      <c r="BL12" s="158"/>
+      <c r="BM12" s="158"/>
       <c r="BN12" s="3"/>
       <c r="BO12" s="3"/>
-      <c r="BP12" s="9"/>
-      <c r="BQ12" s="7"/>
-      <c r="BR12" s="3"/>
-      <c r="BS12" s="3"/>
-      <c r="BT12" s="132"/>
+      <c r="BP12" s="29"/>
     </row>
-    <row r="13" spans="3:72" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="95"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="46" t="s">
+    <row r="13" spans="3:68" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="57"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="34"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="126"/>
       <c r="V13" s="17"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="19"/>
-      <c r="AP13" s="19"/>
-      <c r="AQ13" s="20"/>
-      <c r="AR13" s="28"/>
-      <c r="AS13" s="26"/>
-      <c r="AT13" s="20"/>
-      <c r="AU13" s="20"/>
-      <c r="AV13" s="20"/>
-      <c r="AW13" s="19"/>
-      <c r="AX13" s="19"/>
-      <c r="AY13" s="20"/>
-      <c r="AZ13" s="20"/>
-      <c r="BA13" s="19"/>
-      <c r="BB13" s="19"/>
-      <c r="BC13" s="20"/>
-      <c r="BD13" s="28"/>
-      <c r="BE13" s="26"/>
-      <c r="BF13" s="20"/>
-      <c r="BG13" s="20"/>
-      <c r="BH13" s="20"/>
-      <c r="BI13" s="19"/>
-      <c r="BJ13" s="19"/>
-      <c r="BK13" s="20"/>
-      <c r="BL13" s="20"/>
-      <c r="BM13" s="19"/>
-      <c r="BN13" s="19"/>
-      <c r="BO13" s="20"/>
-      <c r="BP13" s="28"/>
-      <c r="BQ13" s="26"/>
-      <c r="BR13" s="20"/>
-      <c r="BS13" s="20"/>
-      <c r="BT13" s="134"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="123"/>
+      <c r="Z13" s="123"/>
+      <c r="AA13" s="123"/>
+      <c r="AB13" s="123"/>
+      <c r="AC13" s="123"/>
+      <c r="AD13" s="123"/>
+      <c r="AE13" s="123"/>
+      <c r="AF13" s="124"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="123"/>
+      <c r="AI13" s="123"/>
+      <c r="AJ13" s="134"/>
+      <c r="AK13" s="123"/>
+      <c r="AL13" s="123"/>
+      <c r="AM13" s="134"/>
+      <c r="AN13" s="134"/>
+      <c r="AO13" s="123"/>
+      <c r="AP13" s="123"/>
+      <c r="AQ13" s="134"/>
+      <c r="AR13" s="124"/>
+      <c r="AS13" s="132"/>
+      <c r="AT13" s="134"/>
+      <c r="AU13" s="134"/>
+      <c r="AV13" s="134"/>
+      <c r="AW13" s="123"/>
+      <c r="AX13" s="123"/>
+      <c r="AY13" s="134"/>
+      <c r="AZ13" s="134"/>
+      <c r="BA13" s="123"/>
+      <c r="BB13" s="123"/>
+      <c r="BC13" s="134"/>
+      <c r="BD13" s="124"/>
+      <c r="BE13" s="132"/>
+      <c r="BF13" s="134"/>
+      <c r="BG13" s="123"/>
+      <c r="BH13" s="134"/>
+      <c r="BI13" s="159"/>
+      <c r="BJ13" s="123"/>
+      <c r="BK13" s="134"/>
+      <c r="BL13" s="159"/>
+      <c r="BM13" s="159"/>
+      <c r="BN13" s="134"/>
+      <c r="BO13" s="134"/>
+      <c r="BP13" s="137"/>
     </row>
-    <row r="14" spans="3:72" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="95"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="35"/>
+    <row r="14" spans="3:68" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="57"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="127"/>
       <c r="V14" s="18"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="19"/>
-      <c r="AP14" s="19"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="29"/>
-      <c r="AS14" s="27"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="19"/>
-      <c r="AX14" s="19"/>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="19"/>
-      <c r="BB14" s="19"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="29"/>
-      <c r="BE14" s="27"/>
-      <c r="BF14" s="21"/>
-      <c r="BG14" s="21"/>
-      <c r="BH14" s="21"/>
-      <c r="BI14" s="19"/>
-      <c r="BJ14" s="19"/>
-      <c r="BK14" s="21"/>
-      <c r="BL14" s="21"/>
-      <c r="BM14" s="19"/>
-      <c r="BN14" s="19"/>
-      <c r="BO14" s="21"/>
-      <c r="BP14" s="29"/>
-      <c r="BQ14" s="27"/>
-      <c r="BR14" s="21"/>
-      <c r="BS14" s="21"/>
-      <c r="BT14" s="136"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="128"/>
+      <c r="Y14" s="123"/>
+      <c r="Z14" s="123"/>
+      <c r="AA14" s="123"/>
+      <c r="AB14" s="123"/>
+      <c r="AC14" s="123"/>
+      <c r="AD14" s="123"/>
+      <c r="AE14" s="123"/>
+      <c r="AF14" s="125"/>
+      <c r="AG14" s="133"/>
+      <c r="AH14" s="123"/>
+      <c r="AI14" s="123"/>
+      <c r="AJ14" s="135"/>
+      <c r="AK14" s="123"/>
+      <c r="AL14" s="123"/>
+      <c r="AM14" s="135"/>
+      <c r="AN14" s="135"/>
+      <c r="AO14" s="123"/>
+      <c r="AP14" s="123"/>
+      <c r="AQ14" s="135"/>
+      <c r="AR14" s="125"/>
+      <c r="AS14" s="133"/>
+      <c r="AT14" s="135"/>
+      <c r="AU14" s="135"/>
+      <c r="AV14" s="135"/>
+      <c r="AW14" s="123"/>
+      <c r="AX14" s="123"/>
+      <c r="AY14" s="135"/>
+      <c r="AZ14" s="135"/>
+      <c r="BA14" s="123"/>
+      <c r="BB14" s="123"/>
+      <c r="BC14" s="135"/>
+      <c r="BD14" s="125"/>
+      <c r="BE14" s="133"/>
+      <c r="BF14" s="135"/>
+      <c r="BG14" s="123"/>
+      <c r="BH14" s="135"/>
+      <c r="BI14" s="159"/>
+      <c r="BJ14" s="123"/>
+      <c r="BK14" s="135"/>
+      <c r="BL14" s="159"/>
+      <c r="BM14" s="159"/>
+      <c r="BN14" s="135"/>
+      <c r="BO14" s="135"/>
+      <c r="BP14" s="138"/>
     </row>
-    <row r="15" spans="3:72" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="95"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="46" t="s">
+    <row r="15" spans="3:68" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="57"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="20"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="20"/>
-      <c r="AN15" s="20"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="20"/>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="26"/>
-      <c r="AT15" s="20"/>
-      <c r="AU15" s="20"/>
-      <c r="AV15" s="20"/>
-      <c r="AW15" s="19"/>
-      <c r="AX15" s="19"/>
-      <c r="AY15" s="20"/>
-      <c r="AZ15" s="20"/>
-      <c r="BA15" s="19"/>
-      <c r="BB15" s="19"/>
-      <c r="BC15" s="20"/>
-      <c r="BD15" s="28"/>
-      <c r="BE15" s="26"/>
-      <c r="BF15" s="20"/>
-      <c r="BG15" s="20"/>
-      <c r="BH15" s="20"/>
-      <c r="BI15" s="19"/>
-      <c r="BJ15" s="19"/>
-      <c r="BK15" s="20"/>
-      <c r="BL15" s="20"/>
-      <c r="BM15" s="19"/>
-      <c r="BN15" s="19"/>
-      <c r="BO15" s="20"/>
-      <c r="BP15" s="28"/>
-      <c r="BQ15" s="26"/>
-      <c r="BR15" s="20"/>
-      <c r="BS15" s="20"/>
-      <c r="BT15" s="134"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="123"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="131"/>
+      <c r="Y15" s="123"/>
+      <c r="Z15" s="123"/>
+      <c r="AA15" s="123"/>
+      <c r="AB15" s="123"/>
+      <c r="AC15" s="123"/>
+      <c r="AD15" s="123"/>
+      <c r="AE15" s="123"/>
+      <c r="AF15" s="129"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="134"/>
+      <c r="AI15" s="134"/>
+      <c r="AJ15" s="134"/>
+      <c r="AK15" s="123"/>
+      <c r="AL15" s="123"/>
+      <c r="AM15" s="134"/>
+      <c r="AN15" s="134"/>
+      <c r="AO15" s="123"/>
+      <c r="AP15" s="123"/>
+      <c r="AQ15" s="134"/>
+      <c r="AR15" s="124"/>
+      <c r="AS15" s="132"/>
+      <c r="AT15" s="134"/>
+      <c r="AU15" s="134"/>
+      <c r="AV15" s="134"/>
+      <c r="AW15" s="123"/>
+      <c r="AX15" s="123"/>
+      <c r="AY15" s="134"/>
+      <c r="AZ15" s="134"/>
+      <c r="BA15" s="123"/>
+      <c r="BB15" s="123"/>
+      <c r="BC15" s="134"/>
+      <c r="BD15" s="124"/>
+      <c r="BE15" s="132"/>
+      <c r="BF15" s="134"/>
+      <c r="BG15" s="123"/>
+      <c r="BH15" s="134"/>
+      <c r="BI15" s="123"/>
+      <c r="BJ15" s="123"/>
+      <c r="BK15" s="134"/>
+      <c r="BL15" s="159"/>
+      <c r="BM15" s="159"/>
+      <c r="BN15" s="134"/>
+      <c r="BO15" s="134"/>
+      <c r="BP15" s="137"/>
     </row>
-    <row r="16" spans="3:72" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="95"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="19"/>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="29"/>
-      <c r="AS16" s="27"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="19"/>
-      <c r="BB16" s="19"/>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="29"/>
-      <c r="BE16" s="27"/>
-      <c r="BF16" s="21"/>
-      <c r="BG16" s="21"/>
-      <c r="BH16" s="21"/>
-      <c r="BI16" s="19"/>
-      <c r="BJ16" s="19"/>
-      <c r="BK16" s="21"/>
-      <c r="BL16" s="21"/>
-      <c r="BM16" s="19"/>
-      <c r="BN16" s="19"/>
-      <c r="BO16" s="21"/>
-      <c r="BP16" s="29"/>
-      <c r="BQ16" s="27"/>
-      <c r="BR16" s="21"/>
-      <c r="BS16" s="21"/>
-      <c r="BT16" s="136"/>
+    <row r="16" spans="3:68" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="57"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="123"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="123"/>
+      <c r="Z16" s="123"/>
+      <c r="AA16" s="123"/>
+      <c r="AB16" s="123"/>
+      <c r="AC16" s="123"/>
+      <c r="AD16" s="123"/>
+      <c r="AE16" s="123"/>
+      <c r="AF16" s="129"/>
+      <c r="AG16" s="133"/>
+      <c r="AH16" s="135"/>
+      <c r="AI16" s="135"/>
+      <c r="AJ16" s="135"/>
+      <c r="AK16" s="123"/>
+      <c r="AL16" s="123"/>
+      <c r="AM16" s="135"/>
+      <c r="AN16" s="135"/>
+      <c r="AO16" s="123"/>
+      <c r="AP16" s="123"/>
+      <c r="AQ16" s="135"/>
+      <c r="AR16" s="125"/>
+      <c r="AS16" s="133"/>
+      <c r="AT16" s="135"/>
+      <c r="AU16" s="135"/>
+      <c r="AV16" s="135"/>
+      <c r="AW16" s="123"/>
+      <c r="AX16" s="123"/>
+      <c r="AY16" s="135"/>
+      <c r="AZ16" s="135"/>
+      <c r="BA16" s="123"/>
+      <c r="BB16" s="123"/>
+      <c r="BC16" s="135"/>
+      <c r="BD16" s="125"/>
+      <c r="BE16" s="133"/>
+      <c r="BF16" s="135"/>
+      <c r="BG16" s="123"/>
+      <c r="BH16" s="135"/>
+      <c r="BI16" s="123"/>
+      <c r="BJ16" s="123"/>
+      <c r="BK16" s="135"/>
+      <c r="BL16" s="159"/>
+      <c r="BM16" s="159"/>
+      <c r="BN16" s="135"/>
+      <c r="BO16" s="135"/>
+      <c r="BP16" s="138"/>
     </row>
-    <row r="17" spans="3:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="95"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="103" t="s">
+    <row r="17" spans="3:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="57"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="92" t="s">
+      <c r="F17" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="92"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="137"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="30"/>
       <c r="J17" s="8"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -2693,22 +2705,18 @@
       <c r="BM17" s="6"/>
       <c r="BN17" s="6"/>
       <c r="BO17" s="6"/>
-      <c r="BP17" s="11"/>
-      <c r="BQ17" s="8"/>
-      <c r="BR17" s="6"/>
-      <c r="BS17" s="6"/>
-      <c r="BT17" s="138"/>
+      <c r="BP17" s="31"/>
     </row>
-    <row r="18" spans="3:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="95"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="69" t="s">
+    <row r="18" spans="3:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="57"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="137"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="8"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -2767,22 +2775,18 @@
       <c r="BM18" s="6"/>
       <c r="BN18" s="6"/>
       <c r="BO18" s="6"/>
-      <c r="BP18" s="11"/>
-      <c r="BQ18" s="8"/>
-      <c r="BR18" s="6"/>
-      <c r="BS18" s="6"/>
-      <c r="BT18" s="138"/>
+      <c r="BP18" s="31"/>
     </row>
-    <row r="19" spans="3:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="95"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="69" t="s">
+    <row r="19" spans="3:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="57"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="137"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="8"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -2841,22 +2845,18 @@
       <c r="BM19" s="6"/>
       <c r="BN19" s="6"/>
       <c r="BO19" s="6"/>
-      <c r="BP19" s="11"/>
-      <c r="BQ19" s="8"/>
-      <c r="BR19" s="6"/>
-      <c r="BS19" s="6"/>
-      <c r="BT19" s="138"/>
+      <c r="BP19" s="31"/>
     </row>
-    <row r="20" spans="3:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="95"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="69" t="s">
+    <row r="20" spans="3:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="57"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="137"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="8"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -2915,22 +2915,18 @@
       <c r="BM20" s="6"/>
       <c r="BN20" s="6"/>
       <c r="BO20" s="6"/>
-      <c r="BP20" s="11"/>
-      <c r="BQ20" s="8"/>
-      <c r="BR20" s="6"/>
-      <c r="BS20" s="6"/>
-      <c r="BT20" s="138"/>
+      <c r="BP20" s="31"/>
     </row>
-    <row r="21" spans="3:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="95"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="69" t="s">
+    <row r="21" spans="3:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="57"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="137"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="30"/>
       <c r="J21" s="8"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -2989,22 +2985,18 @@
       <c r="BM21" s="6"/>
       <c r="BN21" s="6"/>
       <c r="BO21" s="6"/>
-      <c r="BP21" s="11"/>
-      <c r="BQ21" s="8"/>
-      <c r="BR21" s="6"/>
-      <c r="BS21" s="6"/>
-      <c r="BT21" s="138"/>
+      <c r="BP21" s="31"/>
     </row>
-    <row r="22" spans="3:73" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="95"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="69" t="s">
+    <row r="22" spans="3:69" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="57"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="137"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="8"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -3047,7 +3039,7 @@
       <c r="AW22" s="6"/>
       <c r="AX22" s="6"/>
       <c r="AY22" s="6"/>
-      <c r="AZ22" s="4"/>
+      <c r="AZ22" s="160"/>
       <c r="BA22" s="4"/>
       <c r="BB22" s="4"/>
       <c r="BC22" s="4"/>
@@ -3063,26 +3055,22 @@
       <c r="BM22" s="6"/>
       <c r="BN22" s="6"/>
       <c r="BO22" s="6"/>
-      <c r="BP22" s="11"/>
-      <c r="BQ22" s="8"/>
-      <c r="BR22" s="6"/>
-      <c r="BS22" s="6"/>
-      <c r="BT22" s="138"/>
+      <c r="BP22" s="31"/>
     </row>
-    <row r="23" spans="3:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="95"/>
-      <c r="D23" s="58" t="s">
+    <row r="23" spans="3:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="57"/>
+      <c r="D23" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="105" t="s">
+      <c r="E23" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="139"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="7"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3132,31 +3120,27 @@
       <c r="BD23" s="13"/>
       <c r="BE23" s="12"/>
       <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="4"/>
-      <c r="BI23" s="4"/>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
       <c r="BJ23" s="5"/>
       <c r="BK23" s="5"/>
-      <c r="BL23" s="5"/>
-      <c r="BM23" s="5"/>
-      <c r="BN23" s="5"/>
-      <c r="BO23" s="5"/>
-      <c r="BP23" s="9"/>
-      <c r="BQ23" s="7"/>
-      <c r="BR23" s="3"/>
-      <c r="BS23" s="3"/>
-      <c r="BT23" s="132"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="3"/>
+      <c r="BP23" s="29"/>
     </row>
-    <row r="24" spans="3:73" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="95"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="73" t="s">
+    <row r="24" spans="3:69" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="57"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="139"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="7"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3206,183 +3190,171 @@
       <c r="BD24" s="13"/>
       <c r="BE24" s="7"/>
       <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="5"/>
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="4"/>
       <c r="BI24" s="5"/>
-      <c r="BJ24" s="4"/>
-      <c r="BK24" s="4"/>
-      <c r="BL24" s="4"/>
-      <c r="BM24" s="5"/>
-      <c r="BN24" s="5"/>
-      <c r="BO24" s="5"/>
-      <c r="BP24" s="9"/>
-      <c r="BQ24" s="7"/>
-      <c r="BR24" s="3"/>
-      <c r="BS24" s="3"/>
-      <c r="BT24" s="132"/>
+      <c r="BJ24" s="5"/>
+      <c r="BK24" s="5"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="3"/>
+      <c r="BP24" s="29"/>
     </row>
-    <row r="25" spans="3:73" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="95"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="100" t="s">
+    <row r="25" spans="3:69" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="57"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="75" t="s">
+      <c r="F25" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="20"/>
-      <c r="AI25" s="20"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="20"/>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="20"/>
-      <c r="AN25" s="20"/>
-      <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
-      <c r="AR25" s="28"/>
-      <c r="AS25" s="26"/>
-      <c r="AT25" s="20"/>
-      <c r="AU25" s="20"/>
-      <c r="AV25" s="20"/>
-      <c r="AW25" s="20"/>
-      <c r="AX25" s="20"/>
-      <c r="AY25" s="20"/>
-      <c r="AZ25" s="20"/>
-      <c r="BA25" s="20"/>
-      <c r="BB25" s="32"/>
-      <c r="BC25" s="32"/>
-      <c r="BD25" s="31"/>
-      <c r="BE25" s="26"/>
-      <c r="BF25" s="20"/>
-      <c r="BG25" s="20"/>
-      <c r="BH25" s="20"/>
-      <c r="BI25" s="20"/>
-      <c r="BJ25" s="20"/>
-      <c r="BK25" s="20"/>
-      <c r="BL25" s="20"/>
-      <c r="BM25" s="149"/>
-      <c r="BN25" s="20"/>
-      <c r="BO25" s="20"/>
-      <c r="BP25" s="25"/>
-      <c r="BQ25" s="30"/>
-      <c r="BR25" s="19"/>
-      <c r="BS25" s="20"/>
-      <c r="BT25" s="134"/>
-      <c r="BU25" s="2"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="134"/>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="134"/>
+      <c r="AB25" s="134"/>
+      <c r="AC25" s="134"/>
+      <c r="AD25" s="134"/>
+      <c r="AE25" s="134"/>
+      <c r="AF25" s="124"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="134"/>
+      <c r="AI25" s="134"/>
+      <c r="AJ25" s="134"/>
+      <c r="AK25" s="134"/>
+      <c r="AL25" s="134"/>
+      <c r="AM25" s="134"/>
+      <c r="AN25" s="134"/>
+      <c r="AO25" s="134"/>
+      <c r="AP25" s="134"/>
+      <c r="AQ25" s="134"/>
+      <c r="AR25" s="124"/>
+      <c r="AS25" s="132"/>
+      <c r="AT25" s="134"/>
+      <c r="AU25" s="134"/>
+      <c r="AV25" s="134"/>
+      <c r="AW25" s="134"/>
+      <c r="AX25" s="134"/>
+      <c r="AY25" s="134"/>
+      <c r="AZ25" s="134"/>
+      <c r="BA25" s="134"/>
+      <c r="BB25" s="128"/>
+      <c r="BC25" s="128"/>
+      <c r="BD25" s="136"/>
+      <c r="BE25" s="132"/>
+      <c r="BF25" s="134"/>
+      <c r="BG25" s="134"/>
+      <c r="BH25" s="134"/>
+      <c r="BI25" s="139"/>
+      <c r="BJ25" s="134"/>
+      <c r="BK25" s="134"/>
+      <c r="BL25" s="123"/>
+      <c r="BM25" s="123"/>
+      <c r="BN25" s="123"/>
+      <c r="BO25" s="134"/>
+      <c r="BP25" s="137"/>
+      <c r="BQ25" s="2"/>
     </row>
-    <row r="26" spans="3:73" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="95"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="21"/>
-      <c r="AI26" s="21"/>
-      <c r="AJ26" s="21"/>
-      <c r="AK26" s="21"/>
-      <c r="AL26" s="21"/>
-      <c r="AM26" s="21"/>
-      <c r="AN26" s="21"/>
-      <c r="AO26" s="21"/>
-      <c r="AP26" s="21"/>
-      <c r="AQ26" s="21"/>
-      <c r="AR26" s="29"/>
-      <c r="AS26" s="27"/>
-      <c r="AT26" s="21"/>
-      <c r="AU26" s="21"/>
-      <c r="AV26" s="21"/>
-      <c r="AW26" s="21"/>
-      <c r="AX26" s="21"/>
-      <c r="AY26" s="21"/>
-      <c r="AZ26" s="21"/>
-      <c r="BA26" s="21"/>
-      <c r="BB26" s="32"/>
-      <c r="BC26" s="32"/>
-      <c r="BD26" s="31"/>
-      <c r="BE26" s="27"/>
-      <c r="BF26" s="21"/>
-      <c r="BG26" s="21"/>
-      <c r="BH26" s="21"/>
-      <c r="BI26" s="21"/>
-      <c r="BJ26" s="21"/>
-      <c r="BK26" s="21"/>
-      <c r="BL26" s="21"/>
-      <c r="BM26" s="150"/>
-      <c r="BN26" s="21"/>
-      <c r="BO26" s="21"/>
-      <c r="BP26" s="25"/>
-      <c r="BQ26" s="30"/>
-      <c r="BR26" s="19"/>
-      <c r="BS26" s="21"/>
-      <c r="BT26" s="136"/>
-      <c r="BU26" s="2"/>
+    <row r="26" spans="3:69" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="57"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="135"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="125"/>
+      <c r="U26" s="133"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="135"/>
+      <c r="AE26" s="135"/>
+      <c r="AF26" s="125"/>
+      <c r="AG26" s="133"/>
+      <c r="AH26" s="135"/>
+      <c r="AI26" s="135"/>
+      <c r="AJ26" s="135"/>
+      <c r="AK26" s="135"/>
+      <c r="AL26" s="135"/>
+      <c r="AM26" s="135"/>
+      <c r="AN26" s="135"/>
+      <c r="AO26" s="135"/>
+      <c r="AP26" s="135"/>
+      <c r="AQ26" s="135"/>
+      <c r="AR26" s="125"/>
+      <c r="AS26" s="133"/>
+      <c r="AT26" s="135"/>
+      <c r="AU26" s="135"/>
+      <c r="AV26" s="135"/>
+      <c r="AW26" s="135"/>
+      <c r="AX26" s="135"/>
+      <c r="AY26" s="135"/>
+      <c r="AZ26" s="135"/>
+      <c r="BA26" s="135"/>
+      <c r="BB26" s="128"/>
+      <c r="BC26" s="128"/>
+      <c r="BD26" s="136"/>
+      <c r="BE26" s="133"/>
+      <c r="BF26" s="135"/>
+      <c r="BG26" s="135"/>
+      <c r="BH26" s="135"/>
+      <c r="BI26" s="140"/>
+      <c r="BJ26" s="135"/>
+      <c r="BK26" s="135"/>
+      <c r="BL26" s="123"/>
+      <c r="BM26" s="123"/>
+      <c r="BN26" s="123"/>
+      <c r="BO26" s="135"/>
+      <c r="BP26" s="138"/>
+      <c r="BQ26" s="2"/>
     </row>
-    <row r="27" spans="3:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="95"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="56" t="s">
+    <row r="27" spans="3:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="57"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="67"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="139"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="7"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -3432,31 +3404,27 @@
       <c r="BD27" s="13"/>
       <c r="BE27" s="7"/>
       <c r="BF27" s="3"/>
-      <c r="BG27" s="3"/>
-      <c r="BH27" s="5"/>
+      <c r="BG27" s="5"/>
+      <c r="BH27" s="3"/>
       <c r="BI27" s="5"/>
-      <c r="BJ27" s="5"/>
-      <c r="BK27" s="3"/>
+      <c r="BJ27" s="4"/>
+      <c r="BK27" s="5"/>
       <c r="BL27" s="3"/>
-      <c r="BM27" s="5"/>
-      <c r="BN27" s="4"/>
-      <c r="BO27" s="5"/>
-      <c r="BP27" s="9"/>
-      <c r="BQ27" s="7"/>
-      <c r="BR27" s="3"/>
-      <c r="BS27" s="3"/>
-      <c r="BT27" s="132"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+      <c r="BO27" s="3"/>
+      <c r="BP27" s="29"/>
     </row>
-    <row r="28" spans="3:73" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="95"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="73" t="s">
+    <row r="28" spans="3:69" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="57"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="139"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="7"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -3506,35 +3474,31 @@
       <c r="BD28" s="13"/>
       <c r="BE28" s="7"/>
       <c r="BF28" s="3"/>
-      <c r="BG28" s="3"/>
-      <c r="BH28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="3"/>
       <c r="BI28" s="5"/>
       <c r="BJ28" s="5"/>
-      <c r="BK28" s="3"/>
+      <c r="BK28" s="4"/>
       <c r="BL28" s="3"/>
-      <c r="BM28" s="5"/>
-      <c r="BN28" s="5"/>
-      <c r="BO28" s="4"/>
-      <c r="BP28" s="9"/>
-      <c r="BQ28" s="7"/>
-      <c r="BR28" s="3"/>
-      <c r="BS28" s="3"/>
-      <c r="BT28" s="132"/>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="3"/>
+      <c r="BO28" s="3"/>
+      <c r="BP28" s="29"/>
     </row>
-    <row r="29" spans="3:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="95"/>
-      <c r="D29" s="61" t="s">
+    <row r="29" spans="3:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="57"/>
+      <c r="D29" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="79" t="s">
+      <c r="F29" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="79"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="137"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="30"/>
       <c r="J29" s="8"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -3589,26 +3553,22 @@
       <c r="BI29" s="6"/>
       <c r="BJ29" s="6"/>
       <c r="BK29" s="6"/>
-      <c r="BL29" s="6"/>
-      <c r="BM29" s="6"/>
+      <c r="BL29" s="10"/>
+      <c r="BM29" s="8"/>
       <c r="BN29" s="6"/>
       <c r="BO29" s="6"/>
-      <c r="BP29" s="10"/>
-      <c r="BQ29" s="8"/>
-      <c r="BR29" s="6"/>
-      <c r="BS29" s="6"/>
-      <c r="BT29" s="138"/>
+      <c r="BP29" s="31"/>
     </row>
-    <row r="30" spans="3:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="95"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="81" t="s">
+    <row r="30" spans="3:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="57"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="81"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="137"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="8"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -3664,25 +3624,21 @@
       <c r="BJ30" s="6"/>
       <c r="BK30" s="6"/>
       <c r="BL30" s="6"/>
-      <c r="BM30" s="6"/>
+      <c r="BM30" s="12"/>
       <c r="BN30" s="6"/>
       <c r="BO30" s="6"/>
-      <c r="BP30" s="11"/>
-      <c r="BQ30" s="12"/>
-      <c r="BR30" s="6"/>
-      <c r="BS30" s="6"/>
-      <c r="BT30" s="138"/>
+      <c r="BP30" s="31"/>
     </row>
-    <row r="31" spans="3:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="95"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="83" t="s">
+    <row r="31" spans="3:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="57"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="83"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="137"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="30"/>
       <c r="J31" s="8"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -3738,25 +3694,21 @@
       <c r="BJ31" s="6"/>
       <c r="BK31" s="6"/>
       <c r="BL31" s="6"/>
-      <c r="BM31" s="6"/>
-      <c r="BN31" s="6"/>
+      <c r="BM31" s="8"/>
+      <c r="BN31" s="4"/>
       <c r="BO31" s="6"/>
-      <c r="BP31" s="11"/>
-      <c r="BQ31" s="8"/>
-      <c r="BR31" s="4"/>
-      <c r="BS31" s="6"/>
-      <c r="BT31" s="138"/>
+      <c r="BP31" s="31"/>
     </row>
-    <row r="32" spans="3:73" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="95"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="85" t="s">
+    <row r="32" spans="3:69" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="57"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="85"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="137"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="30"/>
       <c r="J32" s="8"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -3812,165 +3764,401 @@
       <c r="BJ32" s="6"/>
       <c r="BK32" s="6"/>
       <c r="BL32" s="6"/>
-      <c r="BM32" s="6"/>
+      <c r="BM32" s="8"/>
       <c r="BN32" s="6"/>
-      <c r="BO32" s="6"/>
-      <c r="BP32" s="11"/>
-      <c r="BQ32" s="8"/>
-      <c r="BR32" s="6"/>
-      <c r="BS32" s="4"/>
-      <c r="BT32" s="138"/>
+      <c r="BO32" s="4"/>
+      <c r="BP32" s="31"/>
     </row>
-    <row r="33" spans="3:72" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="95"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="101" t="s">
+    <row r="33" spans="3:68" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="57"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="140"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="143"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
       <c r="O33" s="16"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="22"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="147"/>
       <c r="V33" s="15"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
       <c r="AA33" s="16"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="23"/>
-      <c r="AG33" s="22"/>
-      <c r="AH33" s="24"/>
-      <c r="AI33" s="24"/>
-      <c r="AJ33" s="24"/>
+      <c r="AB33" s="145"/>
+      <c r="AC33" s="145"/>
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="149"/>
+      <c r="AG33" s="147"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="145"/>
+      <c r="AJ33" s="145"/>
       <c r="AK33" s="16"/>
-      <c r="AL33" s="24"/>
-      <c r="AM33" s="24"/>
-      <c r="AN33" s="24"/>
-      <c r="AO33" s="24"/>
+      <c r="AL33" s="145"/>
+      <c r="AM33" s="145"/>
+      <c r="AN33" s="145"/>
+      <c r="AO33" s="145"/>
       <c r="AP33" s="16"/>
-      <c r="AQ33" s="24"/>
-      <c r="AR33" s="23"/>
-      <c r="AS33" s="22"/>
-      <c r="AT33" s="24"/>
-      <c r="AU33" s="24"/>
+      <c r="AQ33" s="145"/>
+      <c r="AR33" s="149"/>
+      <c r="AS33" s="147"/>
+      <c r="AT33" s="145"/>
+      <c r="AU33" s="145"/>
       <c r="AV33" s="16"/>
-      <c r="AW33" s="24"/>
-      <c r="AX33" s="24"/>
+      <c r="AW33" s="145"/>
+      <c r="AX33" s="145"/>
       <c r="AY33" s="16"/>
-      <c r="AZ33" s="24"/>
-      <c r="BA33" s="24"/>
-      <c r="BB33" s="24"/>
-      <c r="BC33" s="24"/>
+      <c r="AZ33" s="145"/>
+      <c r="BA33" s="145"/>
+      <c r="BB33" s="145"/>
+      <c r="BC33" s="145"/>
       <c r="BD33" s="11"/>
-      <c r="BE33" s="22"/>
-      <c r="BF33" s="24"/>
-      <c r="BG33" s="16"/>
-      <c r="BH33" s="24"/>
-      <c r="BI33" s="24"/>
-      <c r="BJ33" s="24"/>
-      <c r="BK33" s="24"/>
-      <c r="BL33" s="24"/>
-      <c r="BM33" s="16"/>
-      <c r="BN33" s="24"/>
-      <c r="BO33" s="24"/>
-      <c r="BP33" s="23"/>
-      <c r="BQ33" s="22"/>
-      <c r="BR33" s="24"/>
-      <c r="BS33" s="16"/>
-      <c r="BT33" s="151"/>
+      <c r="BE33" s="147"/>
+      <c r="BF33" s="145"/>
+      <c r="BG33" s="145"/>
+      <c r="BH33" s="145"/>
+      <c r="BI33" s="16"/>
+      <c r="BJ33" s="145"/>
+      <c r="BK33" s="145"/>
+      <c r="BL33" s="19"/>
+      <c r="BM33" s="145"/>
+      <c r="BN33" s="145"/>
+      <c r="BO33" s="16"/>
+      <c r="BP33" s="151"/>
     </row>
-    <row r="34" spans="3:72" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="96"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="143"/>
-      <c r="N34" s="143"/>
-      <c r="O34" s="144"/>
-      <c r="P34" s="145"/>
-      <c r="Q34" s="145"/>
-      <c r="R34" s="145"/>
-      <c r="S34" s="145"/>
-      <c r="T34" s="146"/>
-      <c r="U34" s="147"/>
-      <c r="V34" s="142"/>
-      <c r="W34" s="143"/>
-      <c r="X34" s="143"/>
-      <c r="Y34" s="143"/>
-      <c r="Z34" s="143"/>
-      <c r="AA34" s="144"/>
-      <c r="AB34" s="143"/>
-      <c r="AC34" s="143"/>
-      <c r="AD34" s="143"/>
-      <c r="AE34" s="143"/>
-      <c r="AF34" s="146"/>
-      <c r="AG34" s="147"/>
-      <c r="AH34" s="143"/>
-      <c r="AI34" s="143"/>
-      <c r="AJ34" s="143"/>
-      <c r="AK34" s="144"/>
-      <c r="AL34" s="143"/>
-      <c r="AM34" s="143"/>
-      <c r="AN34" s="143"/>
-      <c r="AO34" s="143"/>
-      <c r="AP34" s="144"/>
-      <c r="AQ34" s="143"/>
-      <c r="AR34" s="146"/>
-      <c r="AS34" s="147"/>
-      <c r="AT34" s="143"/>
-      <c r="AU34" s="143"/>
-      <c r="AV34" s="144"/>
-      <c r="AW34" s="143"/>
-      <c r="AX34" s="143"/>
-      <c r="AY34" s="144"/>
-      <c r="AZ34" s="143"/>
-      <c r="BA34" s="143"/>
-      <c r="BB34" s="143"/>
-      <c r="BC34" s="143"/>
-      <c r="BD34" s="148"/>
-      <c r="BE34" s="147"/>
-      <c r="BF34" s="143"/>
-      <c r="BG34" s="144"/>
-      <c r="BH34" s="143"/>
-      <c r="BI34" s="143"/>
-      <c r="BJ34" s="143"/>
-      <c r="BK34" s="143"/>
-      <c r="BL34" s="143"/>
-      <c r="BM34" s="144"/>
-      <c r="BN34" s="143"/>
-      <c r="BO34" s="143"/>
-      <c r="BP34" s="146"/>
-      <c r="BQ34" s="147"/>
-      <c r="BR34" s="143"/>
-      <c r="BS34" s="144"/>
-      <c r="BT34" s="152"/>
+    <row r="34" spans="3:68" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="58"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="146"/>
+      <c r="N34" s="146"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="150"/>
+      <c r="U34" s="148"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="146"/>
+      <c r="X34" s="146"/>
+      <c r="Y34" s="146"/>
+      <c r="Z34" s="146"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="146"/>
+      <c r="AC34" s="146"/>
+      <c r="AD34" s="146"/>
+      <c r="AE34" s="146"/>
+      <c r="AF34" s="150"/>
+      <c r="AG34" s="148"/>
+      <c r="AH34" s="146"/>
+      <c r="AI34" s="146"/>
+      <c r="AJ34" s="146"/>
+      <c r="AK34" s="34"/>
+      <c r="AL34" s="146"/>
+      <c r="AM34" s="146"/>
+      <c r="AN34" s="146"/>
+      <c r="AO34" s="146"/>
+      <c r="AP34" s="34"/>
+      <c r="AQ34" s="146"/>
+      <c r="AR34" s="150"/>
+      <c r="AS34" s="148"/>
+      <c r="AT34" s="146"/>
+      <c r="AU34" s="146"/>
+      <c r="AV34" s="34"/>
+      <c r="AW34" s="146"/>
+      <c r="AX34" s="146"/>
+      <c r="AY34" s="34"/>
+      <c r="AZ34" s="146"/>
+      <c r="BA34" s="146"/>
+      <c r="BB34" s="146"/>
+      <c r="BC34" s="146"/>
+      <c r="BD34" s="36"/>
+      <c r="BE34" s="148"/>
+      <c r="BF34" s="146"/>
+      <c r="BG34" s="146"/>
+      <c r="BH34" s="146"/>
+      <c r="BI34" s="34"/>
+      <c r="BJ34" s="146"/>
+      <c r="BK34" s="146"/>
+      <c r="BL34" s="34"/>
+      <c r="BM34" s="146"/>
+      <c r="BN34" s="146"/>
+      <c r="BO34" s="34"/>
+      <c r="BP34" s="152"/>
+    </row>
+    <row r="37" spans="3:68" x14ac:dyDescent="0.25">
+      <c r="AY37" s="156"/>
     </row>
   </sheetData>
-  <mergeCells count="286">
+  <mergeCells count="269">
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AV13:AV14"/>
+    <mergeCell ref="AY13:AY14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="AM15:AM16"/>
+    <mergeCell ref="AN15:AN16"/>
+    <mergeCell ref="AO15:AO16"/>
+    <mergeCell ref="AQ15:AQ16"/>
+    <mergeCell ref="AR15:AR16"/>
+    <mergeCell ref="AS15:AS16"/>
+    <mergeCell ref="AT15:AT16"/>
+    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="BI15:BI16"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AK15:AK16"/>
+    <mergeCell ref="AP13:AP14"/>
+    <mergeCell ref="AP15:AP16"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AK25:AK26"/>
+    <mergeCell ref="AP25:AP26"/>
+    <mergeCell ref="AQ33:AQ34"/>
+    <mergeCell ref="AJ33:AJ34"/>
+    <mergeCell ref="AL33:AL34"/>
+    <mergeCell ref="AM33:AM34"/>
+    <mergeCell ref="AN33:AN34"/>
+    <mergeCell ref="AO33:AO34"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="BP33:BP34"/>
+    <mergeCell ref="BE33:BE34"/>
+    <mergeCell ref="AS33:AS34"/>
+    <mergeCell ref="AR33:AR34"/>
+    <mergeCell ref="BJ33:BJ34"/>
+    <mergeCell ref="BK33:BK34"/>
+    <mergeCell ref="BN33:BN34"/>
+    <mergeCell ref="BM33:BM34"/>
+    <mergeCell ref="BG33:BG34"/>
+    <mergeCell ref="BH33:BH34"/>
+    <mergeCell ref="AZ33:AZ34"/>
+    <mergeCell ref="BA33:BA34"/>
+    <mergeCell ref="BB33:BB34"/>
+    <mergeCell ref="BC33:BC34"/>
+    <mergeCell ref="BF33:BF34"/>
+    <mergeCell ref="AT33:AT34"/>
+    <mergeCell ref="AU33:AU34"/>
+    <mergeCell ref="AW33:AW34"/>
+    <mergeCell ref="AX33:AX34"/>
+    <mergeCell ref="AD33:AD34"/>
+    <mergeCell ref="AE33:AE34"/>
+    <mergeCell ref="AH33:AH34"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AG33:AG34"/>
+    <mergeCell ref="AF33:AF34"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="AB33:AB34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="AU15:AU16"/>
+    <mergeCell ref="AW15:AW16"/>
+    <mergeCell ref="AX15:AX16"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AV15:AV16"/>
+    <mergeCell ref="AU13:AU14"/>
+    <mergeCell ref="AW13:AW14"/>
+    <mergeCell ref="AX13:AX14"/>
+    <mergeCell ref="AN13:AN14"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="AI15:AI16"/>
+    <mergeCell ref="AJ15:AJ16"/>
+    <mergeCell ref="AL15:AL16"/>
+    <mergeCell ref="AQ13:AQ14"/>
+    <mergeCell ref="AR13:AR14"/>
+    <mergeCell ref="AS13:AS14"/>
+    <mergeCell ref="AT13:AT14"/>
+    <mergeCell ref="BM15:BM16"/>
+    <mergeCell ref="BN15:BN16"/>
+    <mergeCell ref="BO15:BO16"/>
+    <mergeCell ref="BP15:BP16"/>
+    <mergeCell ref="AZ15:AZ16"/>
+    <mergeCell ref="BA15:BA16"/>
+    <mergeCell ref="BB15:BB16"/>
+    <mergeCell ref="BC15:BC16"/>
+    <mergeCell ref="BD15:BD16"/>
+    <mergeCell ref="BE15:BE16"/>
+    <mergeCell ref="BF15:BF16"/>
+    <mergeCell ref="BG15:BG16"/>
+    <mergeCell ref="BH15:BH16"/>
+    <mergeCell ref="BJ15:BJ16"/>
+    <mergeCell ref="BK15:BK16"/>
+    <mergeCell ref="BL15:BL16"/>
+    <mergeCell ref="BP13:BP14"/>
+    <mergeCell ref="BL13:BL14"/>
+    <mergeCell ref="BM13:BM14"/>
+    <mergeCell ref="BN13:BN14"/>
+    <mergeCell ref="BO13:BO14"/>
+    <mergeCell ref="AZ13:AZ14"/>
+    <mergeCell ref="BA13:BA14"/>
+    <mergeCell ref="BB13:BB14"/>
+    <mergeCell ref="BC13:BC14"/>
+    <mergeCell ref="BD13:BD14"/>
+    <mergeCell ref="BE13:BE14"/>
+    <mergeCell ref="BF13:BF14"/>
+    <mergeCell ref="BG13:BG14"/>
+    <mergeCell ref="BH13:BH14"/>
+    <mergeCell ref="BJ13:BJ14"/>
+    <mergeCell ref="BK13:BK14"/>
+    <mergeCell ref="BI13:BI14"/>
+    <mergeCell ref="BO25:BO26"/>
+    <mergeCell ref="BP25:BP26"/>
+    <mergeCell ref="BM25:BM26"/>
+    <mergeCell ref="BN25:BN26"/>
+    <mergeCell ref="BH25:BH26"/>
+    <mergeCell ref="BJ25:BJ26"/>
+    <mergeCell ref="BK25:BK26"/>
+    <mergeCell ref="BL25:BL26"/>
+    <mergeCell ref="BI25:BI26"/>
+    <mergeCell ref="BE25:BE26"/>
+    <mergeCell ref="BF25:BF26"/>
+    <mergeCell ref="BG25:BG26"/>
+    <mergeCell ref="AM25:AM26"/>
+    <mergeCell ref="AN25:AN26"/>
+    <mergeCell ref="AO25:AO26"/>
+    <mergeCell ref="AQ25:AQ26"/>
+    <mergeCell ref="AR25:AR26"/>
+    <mergeCell ref="BD25:BD26"/>
+    <mergeCell ref="AW25:AW26"/>
+    <mergeCell ref="AU25:AU26"/>
+    <mergeCell ref="AT25:AT26"/>
+    <mergeCell ref="AS25:AS26"/>
+    <mergeCell ref="AV25:AV26"/>
+    <mergeCell ref="AY25:AY26"/>
+    <mergeCell ref="AX25:AX26"/>
+    <mergeCell ref="AZ25:AZ26"/>
+    <mergeCell ref="BA25:BA26"/>
+    <mergeCell ref="BB25:BB26"/>
+    <mergeCell ref="BC25:BC26"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AH25:AH26"/>
+    <mergeCell ref="AI25:AI26"/>
+    <mergeCell ref="AJ25:AJ26"/>
+    <mergeCell ref="AL25:AL26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="AF25:AF26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="I9:T9"/>
+    <mergeCell ref="U9:AF9"/>
+    <mergeCell ref="AG9:AR9"/>
+    <mergeCell ref="AS9:BD9"/>
+    <mergeCell ref="I8:BP8"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F13:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H26"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F28:H28"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
@@ -3995,269 +4183,8 @@
     <mergeCell ref="E29:E32"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H26"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C8:H9"/>
-    <mergeCell ref="I9:T9"/>
-    <mergeCell ref="U9:AF9"/>
-    <mergeCell ref="AG9:AR9"/>
-    <mergeCell ref="AS9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="I8:BT8"/>
-    <mergeCell ref="BQ9:BT9"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F13:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AH25:AH26"/>
-    <mergeCell ref="AI25:AI26"/>
-    <mergeCell ref="AJ25:AJ26"/>
-    <mergeCell ref="AL25:AL26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="AF25:AF26"/>
-    <mergeCell ref="BE25:BE26"/>
-    <mergeCell ref="BF25:BF26"/>
-    <mergeCell ref="BH25:BH26"/>
-    <mergeCell ref="BI25:BI26"/>
-    <mergeCell ref="BJ25:BJ26"/>
-    <mergeCell ref="BG25:BG26"/>
-    <mergeCell ref="AM25:AM26"/>
-    <mergeCell ref="AN25:AN26"/>
-    <mergeCell ref="AO25:AO26"/>
-    <mergeCell ref="AQ25:AQ26"/>
-    <mergeCell ref="AR25:AR26"/>
-    <mergeCell ref="BD25:BD26"/>
-    <mergeCell ref="AW25:AW26"/>
-    <mergeCell ref="AU25:AU26"/>
-    <mergeCell ref="AT25:AT26"/>
-    <mergeCell ref="AS25:AS26"/>
-    <mergeCell ref="AV25:AV26"/>
-    <mergeCell ref="AY25:AY26"/>
-    <mergeCell ref="AX25:AX26"/>
-    <mergeCell ref="AZ25:AZ26"/>
-    <mergeCell ref="BA25:BA26"/>
-    <mergeCell ref="BB25:BB26"/>
-    <mergeCell ref="BC25:BC26"/>
-    <mergeCell ref="BS25:BS26"/>
-    <mergeCell ref="BT25:BT26"/>
-    <mergeCell ref="BQ25:BQ26"/>
-    <mergeCell ref="BR25:BR26"/>
-    <mergeCell ref="BK25:BK26"/>
-    <mergeCell ref="BL25:BL26"/>
-    <mergeCell ref="BN25:BN26"/>
-    <mergeCell ref="BO25:BO26"/>
-    <mergeCell ref="BP25:BP26"/>
-    <mergeCell ref="BM25:BM26"/>
-    <mergeCell ref="BP13:BP14"/>
-    <mergeCell ref="BQ13:BQ14"/>
-    <mergeCell ref="BR13:BR14"/>
-    <mergeCell ref="BS13:BS14"/>
-    <mergeCell ref="AZ13:AZ14"/>
-    <mergeCell ref="BA13:BA14"/>
-    <mergeCell ref="BB13:BB14"/>
-    <mergeCell ref="BC13:BC14"/>
-    <mergeCell ref="BD13:BD14"/>
-    <mergeCell ref="BE13:BE14"/>
-    <mergeCell ref="BF13:BF14"/>
-    <mergeCell ref="BH13:BH14"/>
-    <mergeCell ref="BI13:BI14"/>
-    <mergeCell ref="BJ13:BJ14"/>
-    <mergeCell ref="BK13:BK14"/>
-    <mergeCell ref="BL13:BL14"/>
-    <mergeCell ref="BN13:BN14"/>
-    <mergeCell ref="BO13:BO14"/>
-    <mergeCell ref="AQ13:AQ14"/>
-    <mergeCell ref="AR13:AR14"/>
-    <mergeCell ref="AS13:AS14"/>
-    <mergeCell ref="AT13:AT14"/>
-    <mergeCell ref="BQ15:BQ16"/>
-    <mergeCell ref="BR15:BR16"/>
-    <mergeCell ref="BS15:BS16"/>
-    <mergeCell ref="BT15:BT16"/>
-    <mergeCell ref="AZ15:AZ16"/>
-    <mergeCell ref="BA15:BA16"/>
-    <mergeCell ref="BB15:BB16"/>
-    <mergeCell ref="BC15:BC16"/>
-    <mergeCell ref="BD15:BD16"/>
-    <mergeCell ref="BE15:BE16"/>
-    <mergeCell ref="BF15:BF16"/>
-    <mergeCell ref="BH15:BH16"/>
-    <mergeCell ref="BI15:BI16"/>
-    <mergeCell ref="BJ15:BJ16"/>
-    <mergeCell ref="BK15:BK16"/>
-    <mergeCell ref="BL15:BL16"/>
-    <mergeCell ref="BN15:BN16"/>
-    <mergeCell ref="BO15:BO16"/>
-    <mergeCell ref="BP15:BP16"/>
-    <mergeCell ref="BT13:BT14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="AU15:AU16"/>
-    <mergeCell ref="AW15:AW16"/>
-    <mergeCell ref="AX15:AX16"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="AV15:AV16"/>
-    <mergeCell ref="AU13:AU14"/>
-    <mergeCell ref="AW13:AW14"/>
-    <mergeCell ref="AX13:AX14"/>
-    <mergeCell ref="AN13:AN14"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="AI15:AI16"/>
-    <mergeCell ref="AJ15:AJ16"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="AD33:AD34"/>
-    <mergeCell ref="AE33:AE34"/>
-    <mergeCell ref="AH33:AH34"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AG33:AG34"/>
-    <mergeCell ref="AF33:AF34"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="AB33:AB34"/>
-    <mergeCell ref="BT33:BT34"/>
-    <mergeCell ref="BP33:BP34"/>
-    <mergeCell ref="BE33:BE34"/>
-    <mergeCell ref="AS33:AS34"/>
-    <mergeCell ref="AR33:AR34"/>
-    <mergeCell ref="BN33:BN34"/>
-    <mergeCell ref="BO33:BO34"/>
-    <mergeCell ref="BR33:BR34"/>
-    <mergeCell ref="BQ33:BQ34"/>
-    <mergeCell ref="BH33:BH34"/>
-    <mergeCell ref="BI33:BI34"/>
-    <mergeCell ref="BJ33:BJ34"/>
-    <mergeCell ref="BK33:BK34"/>
-    <mergeCell ref="BL33:BL34"/>
-    <mergeCell ref="AZ33:AZ34"/>
-    <mergeCell ref="BA33:BA34"/>
-    <mergeCell ref="BB33:BB34"/>
-    <mergeCell ref="BC33:BC34"/>
-    <mergeCell ref="BF33:BF34"/>
-    <mergeCell ref="AT33:AT34"/>
-    <mergeCell ref="AU33:AU34"/>
-    <mergeCell ref="AW33:AW34"/>
-    <mergeCell ref="AX33:AX34"/>
-    <mergeCell ref="BG13:BG14"/>
-    <mergeCell ref="BM13:BM14"/>
-    <mergeCell ref="BG15:BG16"/>
-    <mergeCell ref="BM15:BM16"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AK15:AK16"/>
-    <mergeCell ref="AP13:AP14"/>
-    <mergeCell ref="AP15:AP16"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AK25:AK26"/>
-    <mergeCell ref="AP25:AP26"/>
-    <mergeCell ref="AQ33:AQ34"/>
-    <mergeCell ref="AJ33:AJ34"/>
-    <mergeCell ref="AL33:AL34"/>
-    <mergeCell ref="AM33:AM34"/>
-    <mergeCell ref="AN33:AN34"/>
-    <mergeCell ref="AO33:AO34"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="AV13:AV14"/>
-    <mergeCell ref="AY13:AY14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="AM15:AM16"/>
-    <mergeCell ref="AN15:AN16"/>
-    <mergeCell ref="AO15:AO16"/>
-    <mergeCell ref="AQ15:AQ16"/>
-    <mergeCell ref="AR15:AR16"/>
-    <mergeCell ref="AS15:AS16"/>
-    <mergeCell ref="AT15:AT16"/>
-    <mergeCell ref="AO13:AO14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>